--- a/HLS_man/COP20/COP20_man_kenya.xlsx
+++ b/HLS_man/COP20/COP20_man_kenya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A2AB1-6CCB-4A66-8929-6490F6D8BB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AD81F0-6C22-4A07-A9C7-5A88CB1D1F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41400" yWindow="0" windowWidth="12600" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
   <si>
     <t>COP20_kenya</t>
   </si>
@@ -234,52 +234,67 @@
     <t>nearby future</t>
   </si>
   <si>
-    <t>utilitarian, egalitarian</t>
-  </si>
-  <si>
-    <t>Action by all (egalitarian) to combat a global challenge for the greater good of all (utilitarian)</t>
-  </si>
-  <si>
-    <t>new UNFCCC policy, UNFCCC agreements and policies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Referring to the foundations of the convention thus a prioritatiran principle. </t>
-  </si>
-  <si>
-    <t>UNFCCC agreements and principles</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t>libertarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Article 4 of the UNFCCC, reflecting the efforts of individual parties. Parties are free to determine their own policies under their obligations. </t>
-  </si>
-  <si>
-    <t>UNFCCC agreements and principles, mitigation</t>
-  </si>
-  <si>
-    <t>Referencing Article 4 of the convention, CBDR and support of developing countries</t>
-  </si>
-  <si>
-    <t>other(GCF)</t>
-  </si>
-  <si>
-    <t>Redistribution of financial resources with GCF</t>
-  </si>
-  <si>
     <t xml:space="preserve">new UNFCCC policy </t>
   </si>
   <si>
     <t>present</t>
   </si>
   <si>
-    <t>egaliarian, suffientarian</t>
-  </si>
-  <si>
-    <t>multilateral rules for everyone (egalitarain) that form a baseline (sufficientarian)</t>
+    <t>egalitarian</t>
+  </si>
+  <si>
+    <t>egalitarian, utilitarian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urging for global action, referring to egalitarian, reason is that it is a global challenge utilitarian. </t>
+  </si>
+  <si>
+    <t>new UNFCCC policy</t>
+  </si>
+  <si>
+    <t>utilitarian</t>
+  </si>
+  <si>
+    <t>Prescribing the need to take on actions for the benefit of all</t>
+  </si>
+  <si>
+    <t>new UNFCCC policy, adaptation, mitigation, loss and damage</t>
+  </si>
+  <si>
+    <t>emissions, financial resources, technological resourcs</t>
+  </si>
+  <si>
+    <t>general normative statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No specific link to a distribution that is preferred.  However there is judgement on the need to address all elements. </t>
+  </si>
+  <si>
+    <t>Unclear what part of article 4 is preferred but in essence a egalitarian principle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescribing the support of developing countries by developed countries, prioritizing the worst off. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge for increased  action on filling the fund, indicating the moral value of support of the worst off. </t>
+  </si>
+  <si>
+    <t>egalitarain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical suggests a normative stance on the need for a meaningfull outcome to enhange multilateral rules, that count for everyone. </t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles,  implementation</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles, mitigation,  support</t>
+  </si>
+  <si>
+    <t>GCF</t>
   </si>
 </sst>
 </file>
@@ -652,18 +667,18 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,7 +707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -700,7 +715,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -708,7 +723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -719,7 +734,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -739,13 +754,13 @@
         <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -753,7 +768,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -761,15 +776,33 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -777,41 +810,41 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -819,7 +852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -827,7 +860,7 @@
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
         <v>41</v>
@@ -836,16 +869,16 @@
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -853,7 +886,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -861,7 +894,7 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
         <v>41</v>
@@ -870,16 +903,16 @@
         <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G15" t="s">
         <v>39</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
@@ -887,7 +920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -895,7 +928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -903,7 +936,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -911,7 +944,7 @@
         <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
@@ -920,16 +953,16 @@
         <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s">
         <v>39</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -937,7 +970,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -945,7 +978,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -953,7 +986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -961,7 +994,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
@@ -969,7 +1002,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>41</v>
@@ -978,16 +1011,16 @@
         <v>38</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -995,7 +1028,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>

--- a/HLS_man/COP20/COP20_man_kenya.xlsx
+++ b/HLS_man/COP20/COP20_man_kenya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AD81F0-6C22-4A07-A9C7-5A88CB1D1F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0641F68-26E9-4E37-8F08-1813616B9697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>COP20_kenya</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -203,12 +197,6 @@
 Thank you , Mr. President.</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Kenya has lived to this 
 call by ratifying the Doha Amendment in June 2014.</t>
   </si>
@@ -216,42 +204,21 @@
     <t>align with G77 and China, African Group</t>
   </si>
   <si>
-    <t>moral responsibility</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
     <t>prioritarian</t>
   </si>
   <si>
     <t>financial resources</t>
   </si>
   <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>nearby future</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
     <t xml:space="preserve">new UNFCCC policy </t>
   </si>
   <si>
-    <t>present</t>
-  </si>
-  <si>
     <t>egalitarian</t>
   </si>
   <si>
-    <t>egalitarian, utilitarian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urging for global action, referring to egalitarian, reason is that it is a global challenge utilitarian. </t>
-  </si>
-  <si>
     <t>new UNFCCC policy</t>
   </si>
   <si>
@@ -261,21 +228,9 @@
     <t>Prescribing the need to take on actions for the benefit of all</t>
   </si>
   <si>
-    <t>new UNFCCC policy, adaptation, mitigation, loss and damage</t>
-  </si>
-  <si>
-    <t>emissions, financial resources, technological resourcs</t>
-  </si>
-  <si>
     <t>general normative statement</t>
   </si>
   <si>
-    <t xml:space="preserve">No specific link to a distribution that is preferred.  However there is judgement on the need to address all elements. </t>
-  </si>
-  <si>
-    <t>Unclear what part of article 4 is preferred but in essence a egalitarian principle.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prescribing the support of developing countries by developed countries, prioritizing the worst off. </t>
   </si>
   <si>
@@ -288,13 +243,49 @@
     <t xml:space="preserve">Critical suggests a normative stance on the need for a meaningfull outcome to enhange multilateral rules, that count for everyone. </t>
   </si>
   <si>
-    <t>UNFCCC agreements and principles,  implementation</t>
-  </si>
-  <si>
-    <t>UNFCCC agreements and principles, mitigation,  support</t>
-  </si>
-  <si>
     <t>GCF</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>equality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urging for global action, prescribing an equal shape in distribution of responsibilty, motivated by global challenge, benefit of all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statement highlighting the imporatnce of these elements. No specific distribution highlighted. </t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t>proportional to commitments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral judgement on the implementation of commitments made by all in article 4, calling for the reporting of contributions. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral judgement on the need to increase action, motivated by the outcome of 2 degrees. </t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>priority to worst off</t>
+  </si>
+  <si>
+    <t>adaptation, mitigation</t>
+  </si>
+  <si>
+    <t>New UNFCCC policy</t>
   </si>
 </sst>
 </file>
@@ -664,21 +655,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,348 +683,339 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" t="s">
-        <v>59</v>
-      </c>
-      <c r="H24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>33</v>
+      <c r="B26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
